--- a/San_Salvador/Info/Areas_Rot.xlsx
+++ b/San_Salvador/Info/Areas_Rot.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7170"/>
+    <workbookView xWindow="720" yWindow="615" windowWidth="19635" windowHeight="7170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Areas_Rot" sheetId="1" r:id="rId1"/>
-    <sheet name="Rotaciones y Operaciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Rotaciones y Operaciones" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
   <si>
     <t>Uso del Suelo</t>
   </si>
@@ -198,6 +199,78 @@
   </si>
   <si>
     <t>eec (soja sin rotar)</t>
+  </si>
+  <si>
+    <t>Rotaciones San Salvador</t>
+  </si>
+  <si>
+    <t>Rotación</t>
+  </si>
+  <si>
+    <t>AÑO 1</t>
+  </si>
+  <si>
+    <t>AÑO 2</t>
+  </si>
+  <si>
+    <t>AÑO 3</t>
+  </si>
+  <si>
+    <t>AÑO 4</t>
+  </si>
+  <si>
+    <t>AÑO 5</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
+  <si>
+    <t>Cob.</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Bcho</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>Cebada</t>
+  </si>
+  <si>
+    <t>Soja 2da</t>
+  </si>
+  <si>
+    <t>Avena</t>
+  </si>
+  <si>
+    <t>Rotacion de cultivos</t>
+  </si>
+  <si>
+    <t>Rotacion Cultivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soja </t>
+  </si>
+  <si>
+    <t>Maiz</t>
+  </si>
+  <si>
+    <t>Rotacion de Cultivos</t>
+  </si>
+  <si>
+    <t>soja</t>
   </si>
 </sst>
 </file>
@@ -522,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -723,6 +796,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -768,7 +869,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +897,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -948,11 +1067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184941184"/>
-        <c:axId val="184811904"/>
+        <c:axId val="145562240"/>
+        <c:axId val="147100032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184941184"/>
+        <c:axId val="145562240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -961,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184811904"/>
+        <c:crossAx val="147100032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -969,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184811904"/>
+        <c:axId val="147100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -981,7 +1100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184941184"/>
+        <c:crossAx val="145562240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1327,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,407 +1628,725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
+      </c>
+      <c r="J80" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
